--- a/xlsx/威斯康星州_intext.xlsx
+++ b/xlsx/威斯康星州_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_威斯康星州</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_威斯康星州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E%E5%B7%9E%E6%97%97</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_Wisconsin</t>
@@ -143,19 +143,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E7%B1%B3%C2%B7%E9%AE%91%E5%BE%B7%E6%BA%AB</t>
   </si>
   <si>
-    <t>塔米·鮑德溫</t>
+    <t>塔米·鲍德温</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>民主黨 (美國)</t>
+    <t>民主党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%81%A9%C2%B7%E8%A9%B9%E6%A3%AE_(%E7%BE%8E%E5%9C%8B%E6%94%BF%E6%B2%BB%E4%BA%BA%E7%89%A9)</t>
   </si>
   <si>
-    <t>羅恩·詹森 (美國政治人物)</t>
+    <t>罗恩·詹森 (美国政治人物)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E</t>
@@ -221,25 +221,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%A4%A7%E6%B9%96%E5%8D%80</t>
   </si>
   <si>
-    <t>五大湖區</t>
+    <t>五大湖区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E8%8D%B7%E8%8F%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>愛荷華州</t>
+    <t>爱荷华州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%B7%9E</t>
   </si>
   <si>
-    <t>伊利諾州</t>
+    <t>伊利诺州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E6%A0%B9%E6%B9%96</t>
@@ -251,13 +251,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E6%A0%B9%E4%B8%8A%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>密西根上半島</t>
+    <t>密西根上半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%BF%85%E7%95%A5%E6%B9%96</t>
   </si>
   <si>
-    <t>蘇必略湖</t>
+    <t>苏必略湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%A1</t>
@@ -269,13 +269,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E8%BF%AA%E9%81%9C</t>
   </si>
   <si>
-    <t>麥迪遜</t>
+    <t>麦迪逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E7%88%BE%E7%93%A6%E5%9F%BA</t>
   </si>
   <si>
-    <t>密爾瓦基</t>
+    <t>密尔瓦基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AF%AD</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E9%9B%9E</t>
   </si>
   <si>
-    <t>火雞</t>
+    <t>火鸡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%AA</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E6%B2%B9%E7%85%8E%E9%A6%99%E8%85%B8</t>
   </si>
   <si>
-    <t>德國油煎香腸</t>
+    <t>德国油煎香肠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E4%BA%BA</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E5%AF%B6%E7%9B%9B%E8%8F%AF</t>
   </si>
   <si>
-    <t>萬寶盛華</t>
+    <t>万宝盛华</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Northwestern_Mutual</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E7%81%A3</t>
   </si>
   <si>
-    <t>綠灣</t>
+    <t>绿湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%85%8B%E7%BD%97%E6%96%AF</t>
@@ -473,31 +473,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%87%B1%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>馬凱特大學</t>
+    <t>马凯特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%A8%81%E6%96%AF%E5%BA%B7%E6%98%9F%E5%B7%9E%E7%9A%84%E5%AD%B8%E9%99%A2%E5%92%8C%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>Template talk-威斯康星州的學院和大學</t>
+    <t>Template talk-威斯康星州的学院和大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E7%B6%AD%E8%AB%BE%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>阿爾維諾學院</t>
+    <t>阿尔维诺学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E6%B4%9B%E4%BC%8A%E7%89%B9%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>伯洛伊特學院</t>
+    <t>伯洛伊特学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%BE%85%E7%88%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>卡羅爾大學</t>
+    <t>卡罗尔大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%BF%AA%E7%BA%B3%E5%B0%94%E6%96%AF%E7%89%B9%E9%87%8C%E5%A5%87%E5%A4%A7%E5%AD%A6</t>
@@ -509,115 +509,115 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%A6%E5%A4%AA%E5%9F%BA%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>迦太基學院</t>
+    <t>迦太基学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%94%E5%92%8C%E5%A4%A7%E5%AD%B8%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>協和大學威斯康辛分校</t>
+    <t>协和大学威斯康辛分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%A5%87%E4%BC%8D%E5%BE%B7%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>埃奇伍德學院</t>
+    <t>埃奇伍德学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%96%E5%9C%B0%E5%AD%B8%E9%99%A2_(%E5%A8%81%E6%96%AF%E5%BA%B7%E6%98%9F%E5%B7%9E)</t>
   </si>
   <si>
-    <t>湖地學院 (威斯康星州)</t>
+    <t>湖地学院 (威斯康星州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>勞倫斯大學</t>
+    <t>劳伦斯大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E8%BF%AA%E9%81%9C%E5%AA%92%E9%AB%94%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>麥迪遜媒體學院</t>
+    <t>麦迪逊媒体学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E7%B4%8D%E5%A1%94%E6%B5%B8%E6%9C%83%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>馬拉納塔浸會大學</t>
+    <t>马拉纳塔浸会大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E9%BA%97%E5%AE%89%E5%A4%A7%E5%AD%B8_(%E5%A8%81%E6%96%AF%E5%BA%B7%E6%98%9F%E5%B7%9E)</t>
   </si>
   <si>
-    <t>瑪麗安大學 (威斯康星州)</t>
+    <t>玛丽安大学 (威斯康星州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E6%98%9F%E9%86%AB%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>威斯康星醫學院</t>
+    <t>威斯康星医学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E7%88%BE%E6%B2%83%E5%9F%BA%E8%97%9D%E8%A1%93%E8%A8%AD%E8%A8%88%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>密爾沃基藝術設計學院</t>
+    <t>密尔沃基艺术设计学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E7%88%BE%E6%B2%83%E5%9F%BA%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>密爾沃基工學院</t>
+    <t>密尔沃基工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E9%BA%97%E5%B1%B1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>瑪麗山大學</t>
+    <t>玛丽山大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E6%80%9D%E8%98%AD%E5%AD%B8%E9%99%A2_(%E5%A8%81%E6%96%AF%E5%BA%B7%E6%98%9F%E5%B7%9E)</t>
   </si>
   <si>
-    <t>諾思蘭學院 (威斯康星州)</t>
+    <t>诺思兰学院 (威斯康星州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%9C%8B%E5%9C%8B%E9%9A%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>北國國際大學</t>
+    <t>北国国际大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%BD%AD%E5%AD%B8%E9%99%A2_(%E5%A8%81%E6%96%AF%E5%BA%B7%E6%98%9F%E5%B7%9E)</t>
   </si>
   <si>
-    <t>里彭學院 (威斯康星州)</t>
+    <t>里彭学院 (威斯康星州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%AB%BE%E4%BC%AF%E7%89%B9%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>聖諾伯特學院</t>
+    <t>圣诺伯特学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%89%B9%E7%88%BE%E6%B3%A2%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>維特爾波大學</t>
+    <t>维特尔波大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E6%98%9F%E8%B7%AF%E5%BE%B7%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>威斯康星路德學院</t>
+    <t>威斯康星路德学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E6%98%9F%E8%81%B7%E6%A5%AD%E5%BF%83%E7%90%86%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>威斯康星職業心理學校</t>
+    <t>威斯康星职业心理学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E6%98%9F%E5%A4%A7%E5%AD%A6</t>
@@ -629,49 +629,49 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E6%98%9F%E5%A4%A7%E5%AD%B8%E5%A5%A7%E5%85%8B%E8%90%8A%E7%88%BE%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>威斯康星大學奧克萊爾分校</t>
+    <t>威斯康星大学奥克莱尔分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E6%98%9F%E5%A4%A7%E5%AD%B8%E6%8B%89%E5%85%8B%E7%BE%85%E6%96%AF%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>威斯康星大學拉克羅斯分校</t>
+    <t>威斯康星大学拉克罗斯分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E6%98%9F%E5%A4%A7%E5%AD%B8%E5%A5%A7%E4%BB%80%E7%A7%91%E4%BB%80%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>威斯康星大學奧什科什分校</t>
+    <t>威斯康星大学奥什科什分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E6%98%9F%E5%A4%A7%E5%AD%B8%E5%B8%95%E5%85%8B%E5%A1%9E%E5%BE%B7%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>威斯康星大學帕克塞德分校</t>
+    <t>威斯康星大学帕克塞德分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E6%98%9F%E5%A4%A7%E5%AD%B8%E6%99%AE%E6%8B%89%E7%89%B9%E7%B6%AD%E7%88%BE%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>威斯康星大學普拉特維爾分校</t>
+    <t>威斯康星大学普拉特维尔分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E6%98%9F%E5%A4%A7%E5%AD%B8%E6%B2%B3%E7%80%91%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>威斯康星大學河瀑分校</t>
+    <t>威斯康星大学河瀑分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E6%98%9F%E5%A4%A7%E5%AD%B8%E5%8F%B2%E8%92%82%E8%8A%AC%E6%96%AF%E8%A7%92%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>威斯康星大學史蒂芬斯角分校</t>
+    <t>威斯康星大学史蒂芬斯角分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E6%98%9F%E5%A4%A7%E5%AD%B8%E6%96%AF%E6%89%98%E7%89%B9%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>威斯康星大學斯托特分校</t>
+    <t>威斯康星大学斯托特分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E6%98%9F%E5%A4%A7%E5%AD%A6%E8%8B%8F%E5%BF%85%E7%95%A5%E5%88%86%E6%A0%A1</t>
@@ -683,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E6%98%9F%E5%A4%A7%E5%AD%B8%E7%99%BD%E6%B0%B4%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>威斯康星大學白水分校</t>
+    <t>威斯康星大学白水分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E6%98%9F%E5%A4%A7%E5%AD%A6%E7%BB%BC%E5%90%88%E5%AD%A6%E9%99%A2</t>
@@ -695,13 +695,13 @@
     <t>https://zh.wikipedia.org/wiki/90%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>90號州際公路</t>
+    <t>90号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/94%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>94號州際公路</t>
+    <t>94号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/39%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF</t>
@@ -725,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E7%81%A3%E5%8C%85%E8%A3%9D%E5%B7%A5</t>
   </si>
   <si>
-    <t>綠灣包裝工</t>
+    <t>绿湾包装工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NCAA</t>
@@ -737,7 +737,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>美國職棒大聯盟</t>
+    <t>美国职棒大联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%B0%94%E6%B2%83%E5%9F%BA%E9%85%BF%E9%85%92%E4%BA%BA</t>
@@ -749,19 +749,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>小聯盟</t>
+    <t>小联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E9%9B%99%E5%9F%8E</t>
   </si>
   <si>
-    <t>明尼蘇達雙城</t>
+    <t>明尼苏达双城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96%E6%B0%B4%E6%89%8B</t>
   </si>
   <si>
-    <t>西雅圖水手</t>
+    <t>西雅图水手</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBA</t>
@@ -779,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
@@ -797,7 +797,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -815,7 +815,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -839,7 +839,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -875,7 +875,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -905,7 +905,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -923,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
@@ -935,7 +935,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
@@ -989,7 +989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -1007,7 +1007,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -1061,7 +1061,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E</t>
@@ -1073,7 +1073,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -1085,19 +1085,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -1115,7 +1115,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -1127,7 +1127,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -1139,7 +1139,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -1151,25 +1151,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -1199,7 +1199,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1217,7 +1217,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1235,7 +1235,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
